--- a/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,12 +17,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>DNB</t>
   </si>
@@ -303,9 +303,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,155 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2">
-        <v>42004</v>
-      </c>
-      <c r="H7" s="2">
-        <v>41639</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1592600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1716400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1742500</v>
       </c>
-      <c r="E8" s="3">
-        <v>1703700</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1637100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1584500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1558400</v>
-      </c>
-      <c r="I8" s="3">
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>1663000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1758500</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>574700</v>
+        <v>505200</v>
       </c>
       <c r="E9" s="3">
+        <v>563400</v>
+      </c>
+      <c r="F9" s="3">
+        <v>573300</v>
+      </c>
+      <c r="G9" s="3">
         <v>542600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>544700</v>
       </c>
-      <c r="G9" s="3">
-        <v>530100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>524400</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
         <v>521000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>587100</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1167800</v>
+        <v>1087400</v>
       </c>
       <c r="E10" s="3">
-        <v>1161100</v>
+        <v>1153000</v>
       </c>
       <c r="F10" s="3">
-        <v>1092400</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1054400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1034000</v>
-      </c>
-      <c r="I10" s="3">
+        <v>1169200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>1142000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1171400</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,8 +825,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,9 +853,15 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -852,63 +886,81 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>137700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>25400</v>
+      </c>
+      <c r="F14" s="3">
         <v>32800</v>
       </c>
-      <c r="E14" s="3">
-        <v>119000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>39500</v>
-      </c>
       <c r="G14" s="3">
-        <v>43500</v>
+        <v>22100</v>
       </c>
       <c r="H14" s="3">
-        <v>13100</v>
-      </c>
-      <c r="I14" s="3">
+        <v>32300</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>38100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>29200</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>493500</v>
+      </c>
+      <c r="E15" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F15" s="3">
         <v>79700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>68600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>58700</v>
       </c>
-      <c r="G15" s="3">
-        <v>52500</v>
-      </c>
-      <c r="H15" s="3">
-        <v>60400</v>
-      </c>
-      <c r="I15" s="3">
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>78300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>81100</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -917,62 +969,76 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1360300</v>
+        <v>1910000</v>
       </c>
       <c r="E17" s="3">
-        <v>1441400</v>
+        <v>1287500</v>
       </c>
       <c r="F17" s="3">
-        <v>1307300</v>
+        <v>1358200</v>
       </c>
       <c r="G17" s="3">
-        <v>1201700</v>
+        <v>1344500</v>
       </c>
       <c r="H17" s="3">
-        <v>1131500</v>
-      </c>
-      <c r="I17" s="3">
+        <v>1300100</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>1239600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1340800</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>382200</v>
+        <v>-317400</v>
       </c>
       <c r="E18" s="3">
-        <v>262300</v>
+        <v>428900</v>
       </c>
       <c r="F18" s="3">
-        <v>329800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>382800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>426900</v>
-      </c>
-      <c r="I18" s="3">
+        <v>384300</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>423400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>417700</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -984,143 +1050,175 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>-152300</v>
       </c>
       <c r="E20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G20" s="3">
-        <v>700</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-12600</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>23800</v>
+      </c>
+      <c r="E21" s="3">
+        <v>516200</v>
+      </c>
+      <c r="F21" s="3">
         <v>462100</v>
       </c>
-      <c r="E21" s="3">
-        <v>325300</v>
-      </c>
-      <c r="F21" s="3">
-        <v>389700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>436000</v>
-      </c>
-      <c r="H21" s="3">
-        <v>487400</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>496100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>486200</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>309000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>54400</v>
+      </c>
+      <c r="F22" s="3">
         <v>59700</v>
       </c>
-      <c r="E22" s="3">
-        <v>53100</v>
-      </c>
-      <c r="F22" s="3">
-        <v>51000</v>
-      </c>
-      <c r="G22" s="3">
-        <v>43300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>40700</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>39500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>37000</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-778700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>373100</v>
+      </c>
+      <c r="F23" s="3">
         <v>322700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>203600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>280000</v>
       </c>
-      <c r="G23" s="3">
-        <v>340200</v>
-      </c>
-      <c r="H23" s="3">
-        <v>386300</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>378300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>368100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>99000</v>
+        <v>-145700</v>
       </c>
       <c r="E24" s="3">
+        <v>81600</v>
+      </c>
+      <c r="F24" s="3">
+        <v>154400</v>
+      </c>
+      <c r="G24" s="3">
         <v>99900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>74200</v>
       </c>
-      <c r="G24" s="3">
-        <v>54300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>135600</v>
-      </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>83100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>109200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1145,63 +1243,81 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>223700</v>
+        <v>-633000</v>
       </c>
       <c r="E26" s="3">
-        <v>103700</v>
+        <v>291500</v>
       </c>
       <c r="F26" s="3">
-        <v>205800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>285900</v>
-      </c>
-      <c r="H26" s="3">
-        <v>250700</v>
-      </c>
-      <c r="I26" s="3">
+        <v>168300</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>295200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>258900</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>222400</v>
+        <v>-749600</v>
       </c>
       <c r="E27" s="3">
-        <v>101500</v>
+        <v>294300</v>
       </c>
       <c r="F27" s="3">
-        <v>204200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>284300</v>
-      </c>
-      <c r="H27" s="3">
-        <v>248700</v>
-      </c>
-      <c r="I27" s="3">
+        <v>171100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>295400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>260000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1226,26 +1342,32 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-81500</v>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>-4100</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>-35400</v>
-      </c>
-      <c r="G29" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H29" s="3">
-        <v>9800</v>
+        <v>-26100</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1253,9 +1375,15 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1280,9 +1408,15 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1307,63 +1441,81 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-200</v>
+        <v>152300</v>
       </c>
       <c r="E32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>5600</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>12600</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>140900</v>
+        <v>-749600</v>
       </c>
       <c r="E33" s="3">
-        <v>97400</v>
+        <v>294300</v>
       </c>
       <c r="F33" s="3">
-        <v>168800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>294400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>258500</v>
-      </c>
-      <c r="I33" s="3">
+        <v>145000</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>295400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>260000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1388,68 +1540,86 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>140900</v>
+        <v>-749600</v>
       </c>
       <c r="E35" s="3">
-        <v>97400</v>
+        <v>294300</v>
       </c>
       <c r="F35" s="3">
-        <v>168800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>294400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>258500</v>
-      </c>
-      <c r="I35" s="3">
+        <v>145000</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>295400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>260000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2">
-        <v>42004</v>
-      </c>
-      <c r="H38" s="2">
-        <v>41639</v>
-      </c>
-      <c r="I38" s="2">
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1461,8 +1631,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1474,89 +1646,109 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>98600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F41" s="3">
         <v>442400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>352600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>365700</v>
       </c>
-      <c r="G41" s="3">
-        <v>316300</v>
-      </c>
-      <c r="H41" s="3">
-        <v>235900</v>
-      </c>
-      <c r="I41" s="3">
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>149100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>84400</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>400</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>609400</v>
+        <v>279300</v>
       </c>
       <c r="E43" s="3">
-        <v>554900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>537200</v>
-      </c>
-      <c r="G43" s="3">
-        <v>508800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>524800</v>
-      </c>
-      <c r="I43" s="3">
+        <v>279500</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>520800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>513200</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1581,144 +1773,180 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>40400</v>
+        <v>40000</v>
       </c>
       <c r="E45" s="3">
-        <v>35400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>56200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>107100</v>
-      </c>
-      <c r="H45" s="3">
-        <v>61300</v>
-      </c>
-      <c r="I45" s="3">
+        <v>41600</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
         <v>77500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>129300</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1093700</v>
+        <v>417900</v>
       </c>
       <c r="E46" s="3">
-        <v>944400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>959600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>932600</v>
-      </c>
-      <c r="H46" s="3">
-        <v>822400</v>
-      </c>
-      <c r="I46" s="3">
+        <v>411300</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K46" s="3">
         <v>747400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>726900</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>1900</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>45600</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>47100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>58400</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>38900</v>
+        <v>117300</v>
       </c>
       <c r="E48" s="3">
-        <v>39400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>92500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>122800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>39600</v>
-      </c>
-      <c r="I48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>40600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>45700</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1228600</v>
+        <v>8471300</v>
       </c>
       <c r="E49" s="3">
-        <v>1056100</v>
-      </c>
-      <c r="F49" s="3">
-        <v>1459000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>640300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>773700</v>
-      </c>
-      <c r="I49" s="3">
+        <v>1188700</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>851300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>842100</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1743,9 +1971,15 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1770,36 +2004,48 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>117900</v>
+        <v>106300</v>
       </c>
       <c r="E52" s="3">
-        <v>167400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>142700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>679400</v>
-      </c>
-      <c r="H52" s="3">
-        <v>209000</v>
-      </c>
-      <c r="I52" s="3">
+        <v>189700</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
         <v>305400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>304000</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,36 +2070,48 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9112800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1820900</v>
+      </c>
+      <c r="F54" s="3">
         <v>2480900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2209200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2266500</v>
       </c>
-      <c r="G54" s="3">
-        <v>1986200</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1890300</v>
-      </c>
-      <c r="I54" s="3">
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>1991800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1977100</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1865,8 +2123,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1878,170 +2138,208 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>37400</v>
+        <v>55000</v>
       </c>
       <c r="E57" s="3">
-        <v>46700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>31300</v>
-      </c>
-      <c r="G57" s="3">
-        <v>28000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>41400</v>
-      </c>
-      <c r="I57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>40900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>36400</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>32500</v>
+        <v>81900</v>
       </c>
       <c r="E58" s="3">
-        <v>22500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>20000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>301100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>100</v>
-      </c>
-      <c r="I58" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>982500</v>
+        <v>952900</v>
       </c>
       <c r="E59" s="3">
-        <v>940800</v>
-      </c>
-      <c r="F59" s="3">
-        <v>907900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>862800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>810800</v>
-      </c>
-      <c r="I59" s="3">
+        <v>948100</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>835600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>916000</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1052400</v>
+        <v>1089800</v>
       </c>
       <c r="E60" s="3">
-        <v>1010000</v>
-      </c>
-      <c r="F60" s="3">
-        <v>959200</v>
-      </c>
-      <c r="G60" s="3">
-        <v>1158900</v>
-      </c>
-      <c r="H60" s="3">
-        <v>852300</v>
-      </c>
-      <c r="I60" s="3">
+        <v>1001400</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K60" s="3">
         <v>876700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>953500</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1645600</v>
+        <v>3818900</v>
       </c>
       <c r="E61" s="3">
-        <v>1594500</v>
+        <v>1119600</v>
       </c>
       <c r="F61" s="3">
-        <v>1797000</v>
+        <v>1678100</v>
       </c>
       <c r="G61" s="3">
-        <v>1352200</v>
+        <v>1617000</v>
       </c>
       <c r="H61" s="3">
-        <v>1516000</v>
+        <v>1817000</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>1290700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>963900</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>594100</v>
+        <v>1594600</v>
       </c>
       <c r="E62" s="3">
-        <v>592500</v>
-      </c>
-      <c r="F62" s="3">
-        <v>615600</v>
-      </c>
-      <c r="G62" s="3">
-        <v>649900</v>
-      </c>
-      <c r="H62" s="3">
-        <v>564300</v>
-      </c>
-      <c r="I62" s="3">
+        <v>389800</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K62" s="3">
         <v>838700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>799900</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2066,9 +2364,15 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2093,9 +2397,15 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2120,36 +2430,48 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3308200</v>
+        <v>6561100</v>
       </c>
       <c r="E66" s="3">
-        <v>3211200</v>
+        <v>2526700</v>
       </c>
       <c r="F66" s="3">
-        <v>3383300</v>
+        <v>3292100</v>
       </c>
       <c r="G66" s="3">
-        <v>3189500</v>
+        <v>3197000</v>
       </c>
       <c r="H66" s="3">
-        <v>2938700</v>
-      </c>
-      <c r="I66" s="3">
+        <v>3371800</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>3009200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2721000</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2161,8 +2483,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2187,9 +2511,15 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2214,14 +2544,20 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>1031800</v>
       </c>
       <c r="E70" s="3">
         <v>0</v>
@@ -2241,9 +2577,15 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2268,36 +2610,48 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3176300</v>
+        <v>-573500</v>
       </c>
       <c r="E72" s="3">
-        <v>2959600</v>
-      </c>
-      <c r="F72" s="3">
-        <v>2932800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>2831100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2600900</v>
-      </c>
-      <c r="I72" s="3">
+        <v>3325000</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>2405500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2179300</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2322,9 +2676,15 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2349,9 +2709,15 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2376,36 +2742,48 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-827300</v>
+        <v>1519900</v>
       </c>
       <c r="E76" s="3">
-        <v>-1002000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1116800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1203300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-1048400</v>
-      </c>
-      <c r="I76" s="3">
+        <v>-705800</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>-1017400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-743900</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2430,68 +2808,86 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2">
-        <v>42004</v>
-      </c>
-      <c r="H80" s="2">
-        <v>41639</v>
-      </c>
-      <c r="I80" s="2">
+      <c r="I80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>140900</v>
+        <v>-749600</v>
       </c>
       <c r="E81" s="3">
-        <v>97400</v>
+        <v>294300</v>
       </c>
       <c r="F81" s="3">
-        <v>168800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>294400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>258500</v>
-      </c>
-      <c r="I81" s="3">
+        <v>145000</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>295400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>260000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2503,35 +2899,43 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>493500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>88700</v>
+      </c>
+      <c r="F83" s="3">
         <v>79700</v>
       </c>
-      <c r="E83" s="3">
-        <v>68600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>58700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>52500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>60400</v>
-      </c>
-      <c r="I83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>78300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>81100</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2556,9 +2960,15 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2583,9 +2993,15 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2610,9 +3026,15 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2637,9 +3059,15 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2664,36 +3092,48 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-128400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>325400</v>
+      </c>
+      <c r="F89" s="3">
         <v>286500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>322700</v>
       </c>
-      <c r="F89" s="3">
-        <v>343200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>315500</v>
-      </c>
       <c r="H89" s="3">
-        <v>333300</v>
-      </c>
-      <c r="I89" s="3">
+        <v>336800</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>357800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>312900</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2705,35 +3145,43 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-62100</v>
+        <v>-12700</v>
       </c>
       <c r="E91" s="3">
-        <v>-60200</v>
+        <v>-5100</v>
       </c>
       <c r="F91" s="3">
-        <v>-64800</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-47200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-49300</v>
-      </c>
-      <c r="I91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
         <v>-74400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-53400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2758,9 +3206,15 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2785,36 +3239,48 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6159900</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-65300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-206600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-58100</v>
       </c>
-      <c r="F94" s="3">
-        <v>-376500</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-70000</v>
-      </c>
       <c r="H94" s="3">
-        <v>-61600</v>
-      </c>
-      <c r="I94" s="3">
+        <v>-371100</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-59000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-73400</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2826,35 +3292,43 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-96100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-58100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-74200</v>
       </c>
-      <c r="E96" s="3">
-        <v>-70500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-66700</v>
-      </c>
       <c r="G96" s="3">
-        <v>-64000</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-62500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-69000</v>
       </c>
-      <c r="J96" s="3">
+      <c r="L96" s="3">
         <v>-70400</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2879,9 +3353,15 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2906,9 +3386,15 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2933,88 +3419,112 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6418700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-609700</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-224900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>110700</v>
       </c>
-      <c r="G100" s="3">
-        <v>-144400</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-184300</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-235900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-238000</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F101" s="3">
         <v>28700</v>
       </c>
-      <c r="E101" s="3">
-        <v>-52800</v>
-      </c>
-      <c r="F101" s="3">
-        <v>-31100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="G101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>4400</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-352200</v>
+      </c>
+      <c r="F102" s="3">
         <v>89800</v>
       </c>
-      <c r="E102" s="3">
-        <v>-13100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>46300</v>
-      </c>
-      <c r="G102" s="3">
-        <v>83500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>86800</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>64700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>DNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,74 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1738100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1592600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1716400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1742500</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>8</v>
       </c>
@@ -739,63 +742,69 @@
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>1663000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1758500</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>545600</v>
+      </c>
+      <c r="E9" s="3">
         <v>505200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>563400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>573300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>542600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>544700</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>521000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>587100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1192500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1087400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1153000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1169200</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>8</v>
       </c>
@@ -805,15 +814,18 @@
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>1142000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1171400</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -827,8 +839,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,75 +908,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>35800</v>
+      </c>
+      <c r="E14" s="3">
         <v>137700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>25400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>32800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>22100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>32300</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>38100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>29200</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>535900</v>
+      </c>
+      <c r="E15" s="3">
         <v>493500</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>88700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>79700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>68600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>58700</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>78300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>81100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,56 +996,60 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1675100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1910000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1287500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1358200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1344500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1300100</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>1239600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1340800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>63000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-317400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>428900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>384300</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1030,15 +1059,18 @@
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>423400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>417700</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,23 +1084,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-152300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1900</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1078,30 +1111,33 @@
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-12600</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>588700</v>
+      </c>
+      <c r="E21" s="3">
         <v>23800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>516200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>462100</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1111,30 +1147,33 @@
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>496100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>486200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>271100</v>
+      </c>
+      <c r="E22" s="3">
         <v>309000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>54400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>59700</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1144,81 +1183,90 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>39500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>37000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-219300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-778700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>373100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>322700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>203600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>280000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>378300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>368100</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-145700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>81600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>154400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>99900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>74200</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>83100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>109200</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,24 +1297,27 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-166600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-633000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>291500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>168300</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1276,30 +1327,33 @@
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>295200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>258900</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-233400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-749600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>294300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>171100</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1309,15 +1363,18 @@
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>295400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>260000</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,24 +1405,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>57800</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-26100</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1381,9 +1441,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,24 +1513,27 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E32" s="3">
         <v>152300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1900</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1474,30 +1543,33 @@
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>12600</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-175600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-749600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>294300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>145000</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1507,15 +1579,18 @@
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>295400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>260000</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,24 +1621,27 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-175600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-749600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>294300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>145000</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1573,53 +1651,59 @@
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>295400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>260000</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,41 +1733,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>354500</v>
+      </c>
+      <c r="E41" s="3">
         <v>98600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>90200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>442400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>352600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>365700</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>149100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>84400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1707,27 +1796,30 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
+      <c r="K42" s="3">
+        <v>0</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>321300</v>
+      </c>
+      <c r="E43" s="3">
         <v>279300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>279500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1740,15 +1832,18 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>520800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>513200</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1779,21 +1874,24 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>198200</v>
+      </c>
+      <c r="E45" s="3">
         <v>40000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>41600</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1806,27 +1904,30 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>77500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>129300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E46" s="3">
         <v>417900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>411300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1839,60 +1940,66 @@
       <c r="J46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L46" s="3">
         <v>747400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>726900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>43300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>47100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>58400</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>99300</v>
+      </c>
+      <c r="E48" s="3">
         <v>117300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>31200</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -1905,27 +2012,30 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>40600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>45700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8100900</v>
+      </c>
+      <c r="E49" s="3">
         <v>8471300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1188700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -1938,15 +2048,18 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>851300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>842100</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,21 +2126,24 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E52" s="3">
         <v>106300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>189700</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2037,15 +2156,18 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>305400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>304000</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,42 +2198,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9219400</v>
+      </c>
+      <c r="E54" s="3">
         <v>9112800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1820900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2480900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2209200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2266500</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>1991800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1977100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,20 +2269,21 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E57" s="3">
         <v>55000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>36300</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2166,27 +2296,30 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>40900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>36400</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>25300</v>
+      </c>
+      <c r="E58" s="3">
         <v>81900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>17000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2199,27 +2332,30 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>738800</v>
+      </c>
+      <c r="E59" s="3">
         <v>952900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>948100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2232,27 +2368,30 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>835600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>916000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>825300</v>
+      </c>
+      <c r="E60" s="3">
         <v>1089800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1001400</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2265,60 +2404,66 @@
       <c r="J60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3">
         <v>876700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>953500</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3255800</v>
+      </c>
+      <c r="E61" s="3">
         <v>3818900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1119600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1678100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1617000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1817000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1290700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>963900</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1560600</v>
+      </c>
+      <c r="E62" s="3">
         <v>1594600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>389800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2331,15 +2476,18 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3">
         <v>838700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>799900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,42 +2590,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700200</v>
+      </c>
+      <c r="E66" s="3">
         <v>6561100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2526700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3292100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3197000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3371800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>3009200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2721000</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,18 +2714,21 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
         <v>1031800</v>
       </c>
-      <c r="E70" s="3">
-        <v>0</v>
-      </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,21 +2786,24 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-685000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-573500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>3325000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2643,15 +2816,18 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>2405500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2179300</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,21 +2930,24 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3519200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1519900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-705800</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2775,15 +2960,18 @@
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>-1017400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-743900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,62 +3002,68 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-175600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-749600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>294300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>145000</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>8</v>
       </c>
@@ -2879,15 +3073,18 @@
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>295400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>260000</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,23 +3098,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>536900</v>
+      </c>
+      <c r="E83" s="3">
         <v>493500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>88700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>79700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>8</v>
       </c>
@@ -2927,15 +3125,18 @@
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>78300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>81100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,42 +3311,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-128400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>325400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>286500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>322700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>336800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>357800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>312900</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,23 +3366,24 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3173,15 +3393,18 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-74400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-53400</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,42 +3471,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-134300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-6159900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-65300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-206600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-58100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-371100</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-59000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-73400</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,23 +3526,24 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-64100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-96100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-58100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-74200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -3321,14 +3554,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-69000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-70400</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,57 +3667,63 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>271300</v>
+      </c>
+      <c r="E100" s="3">
         <v>6418700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-609700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-224900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>110700</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-235900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-238000</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>28700</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3485,30 +3733,33 @@
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>4400</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>255900</v>
+      </c>
+      <c r="E102" s="3">
         <v>126000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-352200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3518,13 +3769,16 @@
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>64700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
   <si>
     <t>DNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,80 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2165600</v>
+      </c>
+      <c r="E8" s="3">
         <v>1738100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1592600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1716400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1742500</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
@@ -745,69 +748,75 @@
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>1663000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1758500</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>664300</v>
+      </c>
+      <c r="E9" s="3">
         <v>545600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>505200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>563400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>573300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>542600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>544700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
         <v>521000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>587100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1501300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1192500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1087400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1153000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1169200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
@@ -817,15 +826,18 @@
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>1142000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1171400</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,81 +927,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E14" s="3">
         <v>35800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>137700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>32800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>22100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>32300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>38100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>29200</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>615900</v>
+      </c>
+      <c r="E15" s="3">
         <v>535900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>493500</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>88700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>79700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>68600</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>58700</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>78300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>81100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,62 +1022,66 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2020000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1675100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1910000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1287500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1358200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1344500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1300100</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>1239600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1340800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>145600</v>
+      </c>
+      <c r="E18" s="3">
         <v>63000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-317400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>428900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>384300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1062,15 +1091,18 @@
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>423400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>417700</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,26 +1117,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-11200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-152300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1114,33 +1147,36 @@
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-12600</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>777100</v>
+      </c>
+      <c r="E21" s="3">
         <v>588700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>23800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>516200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>462100</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1150,33 +1186,36 @@
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>496100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>486200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>206400</v>
+      </c>
+      <c r="E22" s="3">
         <v>271100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>309000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>54400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>59700</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1186,87 +1225,96 @@
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>39500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>37000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-45200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-219300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-778700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>373100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>322700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>203600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>280000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>378300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>368100</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E24" s="3">
         <v>-52700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-145700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>81600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>154400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>99900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>74200</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>83100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>109200</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,27 +1348,30 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-69400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-166600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-633000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>291500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>168300</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1330,33 +1381,36 @@
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>295200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>258900</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-233400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-749600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>294300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>171100</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1366,15 +1420,18 @@
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>295400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>260000</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,27 +1465,30 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>800</v>
+      </c>
+      <c r="E29" s="3">
         <v>57800</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-26100</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1444,9 +1504,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,27 +1582,30 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E32" s="3">
         <v>11200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>152300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1546,33 +1615,36 @@
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>12600</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-175600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-749600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>294300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>145000</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1582,15 +1654,18 @@
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>295400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>260000</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,27 +1699,30 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-175600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-749600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>294300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>145000</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1654,56 +1732,62 @@
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>295400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>260000</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,44 +1819,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E41" s="3">
         <v>354500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>98600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>442400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>352600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>365700</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>149100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>84400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1799,30 +1888,33 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
+      <c r="L42" s="3">
+        <v>0</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>401700</v>
+      </c>
+      <c r="E43" s="3">
         <v>321300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>279300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>279500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1835,15 +1927,18 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>520800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>513200</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1877,24 +1972,27 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>139200</v>
+      </c>
+      <c r="E45" s="3">
         <v>198200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>40000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>41600</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -1907,30 +2005,33 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>77500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>129300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>718000</v>
+      </c>
+      <c r="E46" s="3">
         <v>874000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>417900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>411300</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>8</v>
       </c>
@@ -1943,24 +2044,27 @@
       <c r="K46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M46" s="3">
         <v>747400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>726900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E47" s="3">
         <v>43300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
@@ -1976,33 +2080,36 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>47100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>58400</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>168700</v>
+      </c>
+      <c r="E48" s="3">
         <v>99300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>117300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>31200</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2015,30 +2122,33 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>40600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>45700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8875300</v>
+      </c>
+      <c r="E49" s="3">
         <v>8100900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8471300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1188700</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2051,15 +2161,18 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>851300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>842100</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,24 +2245,27 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E52" s="3">
         <v>101900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>106300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>189700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2159,15 +2278,18 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>305400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>304000</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,45 +2323,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9997200</v>
+      </c>
+      <c r="E54" s="3">
         <v>9219400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9112800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1820900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2480900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2209200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2266500</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>1991800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1977100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,23 +2399,24 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E57" s="3">
         <v>61200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>55000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>36300</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2299,30 +2429,33 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>40900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>36400</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E58" s="3">
         <v>25300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>81900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>17000</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2335,30 +2468,33 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>893300</v>
+      </c>
+      <c r="E59" s="3">
         <v>738800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>952900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>948100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2371,30 +2507,33 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>835600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>916000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1004900</v>
+      </c>
+      <c r="E60" s="3">
         <v>825300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1089800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1001400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2407,66 +2546,72 @@
       <c r="K60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M60" s="3">
         <v>876700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>953500</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3716700</v>
+      </c>
+      <c r="E61" s="3">
         <v>3255800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3818900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1119600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1678100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1617000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1817000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1290700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>963900</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1530300</v>
+      </c>
+      <c r="E62" s="3">
         <v>1560600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1594600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>389800</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2479,15 +2624,18 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M62" s="3">
         <v>838700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>799900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,45 +2747,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6316000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6561100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2526700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3292100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3197000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3371800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>3009200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2721000</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2727,11 +2894,11 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>1031800</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
       <c r="G70" s="3">
         <v>0</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,24 +2959,27 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-761800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-685000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-573500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>3325000</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2819,15 +2992,18 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>2405500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2179300</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,24 +3115,27 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3681200</v>
+      </c>
+      <c r="E76" s="3">
         <v>3519200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1519900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-705800</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
@@ -2963,15 +3148,18 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>-1017400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-743900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,68 +3193,74 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-175600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-749600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>294300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>145000</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
@@ -3076,15 +3270,18 @@
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>295400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>260000</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,26 +3296,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>615900</v>
+      </c>
+      <c r="E83" s="3">
         <v>536900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>493500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>88700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>79700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3128,15 +3326,18 @@
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>78300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>81100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,45 +3527,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>503700</v>
+      </c>
+      <c r="E89" s="3">
         <v>195600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-128400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>325400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>286500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>322700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>336800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>357800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>312900</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,26 +3586,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="3">
         <v>-7700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3396,15 +3616,18 @@
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-74400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-53400</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,45 +3700,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1078700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-134300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-6159900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-65300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-206600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-371100</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-59000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-73400</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,26 +3759,27 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-64100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-96100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-58100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-74200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -3557,14 +3790,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-69000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-70400</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,63 +3912,69 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>271300</v>
+        <v>400100</v>
       </c>
       <c r="E100" s="3">
+        <v>189300</v>
+      </c>
+      <c r="F100" s="3">
         <v>6418700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-609700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-224900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>110700</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-235900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-238000</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>5300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-2600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>28700</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3736,33 +3984,36 @@
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>1800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>4400</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-175200</v>
+      </c>
+      <c r="E102" s="3">
         <v>255900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>126000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-352200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>89800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
@@ -3772,13 +4023,16 @@
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>64700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/DNB_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>DNB</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,83 +665,86 @@
     <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2224600</v>
+      </c>
+      <c r="E8" s="3">
         <v>2165600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1738100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1592600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1716400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1742500</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
@@ -751,75 +754,81 @@
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>1663000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1758500</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>721400</v>
+      </c>
+      <c r="E9" s="3">
         <v>664300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>545600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>505200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>563400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>573300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>542600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>544700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>521000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>587100</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1503200</v>
+      </c>
+      <c r="E10" s="3">
         <v>1501300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1192500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1087400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1153000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1169200</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
@@ -829,15 +838,18 @@
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>1142000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1171400</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +865,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,87 +946,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E14" s="3">
         <v>25100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>35800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>137700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>32800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>22100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>32300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>38100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>29200</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>587200</v>
+      </c>
+      <c r="E15" s="3">
         <v>615900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>535900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>493500</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>88700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>79700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>68600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>58700</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>78300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>81100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,68 +1048,72 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2074700</v>
+      </c>
+      <c r="E17" s="3">
         <v>2020000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1675100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1910000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1287500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1358200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1344500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1300100</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>1239600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1340800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E18" s="3">
         <v>145600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>63000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-317400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>428900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>384300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
@@ -1094,15 +1123,18 @@
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>423400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>417700</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,29 +1150,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E20" s="3">
         <v>15600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-11200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-152300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
@@ -1150,36 +1183,39 @@
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>-5600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-12600</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>753200</v>
+      </c>
+      <c r="E21" s="3">
         <v>777100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>588700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>23800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>516200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>462100</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
@@ -1189,36 +1225,39 @@
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>496100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>486200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>193200</v>
+      </c>
+      <c r="E22" s="3">
         <v>206400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>271100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>309000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>54400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>59700</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
@@ -1228,93 +1267,102 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>39500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>37000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-219300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-778700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>373100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>322700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>203600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>280000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>378300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>368100</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-28800</v>
+      </c>
+      <c r="E24" s="3">
         <v>24200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-52700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-145700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>81600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>154400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>99900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>74200</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>83100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>109200</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,30 +1399,33 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-166600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-633000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>291500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>168300</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
@@ -1384,36 +1435,39 @@
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>295200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>258900</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-72500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-233400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-749600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>294300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>171100</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
@@ -1423,15 +1477,18 @@
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>295400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>260000</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,30 +1525,33 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>800</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>57800</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-26100</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1507,9 +1567,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,30 +1651,33 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>11200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>152300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
@@ -1618,36 +1687,39 @@
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>5600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>12600</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-175600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-749600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>294300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>145000</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
@@ -1657,15 +1729,18 @@
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>295400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>260000</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,30 +1777,33 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-175600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-749600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>294300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>145000</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
@@ -1735,59 +1813,65 @@
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>295400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>260000</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,47 +1905,51 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E41" s="3">
         <v>177100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>354500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>98600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>90200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>442400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>352600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>365700</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>149100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>84400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1891,33 +1980,36 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>8</v>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>277800</v>
+      </c>
+      <c r="E43" s="3">
         <v>401700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>321300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>279300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>279500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -1930,15 +2022,18 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>520800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>513200</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1975,27 +2070,30 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E45" s="3">
         <v>139200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>198200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>40000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>41600</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2008,33 +2106,36 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>77500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>129300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>703900</v>
+      </c>
+      <c r="E46" s="3">
         <v>718000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>874000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>417900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>411300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>8</v>
       </c>
@@ -2047,27 +2148,30 @@
       <c r="L46" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="3">
         <v>747400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>726900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>71100</v>
+      </c>
+      <c r="E47" s="3">
         <v>64100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>43300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
@@ -2083,36 +2187,39 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>47100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>58400</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>150000</v>
+      </c>
+      <c r="E48" s="3">
         <v>168700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>99300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>117300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>31200</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2125,33 +2232,36 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>40600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>45700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8383200</v>
+      </c>
+      <c r="E49" s="3">
         <v>8875300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>8100900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>8471300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1188700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2164,15 +2274,18 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>851300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>842100</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,27 +2364,30 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>163700</v>
+      </c>
+      <c r="E52" s="3">
         <v>171100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>106300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>189700</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -2281,15 +2400,18 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>305400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>304000</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,48 +2448,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9471900</v>
+      </c>
+      <c r="E54" s="3">
         <v>9997200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>9219400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>9112800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1820900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2480900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2209200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2266500</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>1991800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1977100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,26 +2529,27 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>80500</v>
+      </c>
+      <c r="E57" s="3">
         <v>83500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>61200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>55000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>36300</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -2432,33 +2562,36 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>40900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>36400</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>32700</v>
+      </c>
+      <c r="E58" s="3">
         <v>28100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>25300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>81900</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>17000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -2471,33 +2604,36 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>989400</v>
+      </c>
+      <c r="E59" s="3">
         <v>893300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>738800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>952900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>948100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
@@ -2510,33 +2646,36 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>835600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>916000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1102600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1004900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>825300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1089800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1001400</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>8</v>
       </c>
@@ -2549,72 +2688,78 @@
       <c r="L60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N60" s="3">
         <v>876700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>953500</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3552200</v>
+      </c>
+      <c r="E61" s="3">
         <v>3716700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3255800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3818900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1119600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1678100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1617000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1817000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1290700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>963900</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1308700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1530300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1560600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1594600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>389800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
       </c>
@@ -2627,15 +2772,18 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N62" s="3">
         <v>838700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>799900</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,48 +2904,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5972600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6316000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6561100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2526700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3292100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3197000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3371800</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>3009200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2721000</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2897,11 +3064,11 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>1031800</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,27 +3132,30 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-764100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-761800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-685000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-573500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>3325000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
@@ -2995,15 +3168,18 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>2405500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2179300</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,27 +3300,30 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>3499300</v>
+      </c>
+      <c r="E76" s="3">
         <v>3681200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3519200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1519900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-705800</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
@@ -3151,15 +3336,18 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>-1017400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-743900</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,74 +3384,80 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-175600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-749600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>294300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>145000</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
@@ -3273,15 +3467,18 @@
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>295400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>260000</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,29 +3494,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>587200</v>
+      </c>
+      <c r="E83" s="3">
         <v>615900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>536900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>493500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>88700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>79700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
@@ -3329,15 +3527,18 @@
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>78300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>81100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,48 +3743,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>537100</v>
+      </c>
+      <c r="E89" s="3">
         <v>503700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>195600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-128400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>325400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>286500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>322700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>336800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>357800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>312900</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,29 +3806,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" s="3">
+      <c r="D91" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="3">
         <v>-7700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
@@ -3619,15 +3839,18 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-74400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-53400</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,48 +3929,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-210500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1078700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-134300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-6159900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-65300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-206600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-371100</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-59000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-73400</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,29 +3992,30 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-42900</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-64100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-96100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-58100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-74200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -3793,14 +4026,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-69000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-70400</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,69 +4157,75 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-281100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>189300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6418700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-609700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-224900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>110700</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-235900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-238000</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>5300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-2600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>28700</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
@@ -3987,36 +4235,39 @@
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>1800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4400</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>31300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-175200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>255900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>126000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-352200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>89800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
@@ -4026,13 +4277,16 @@
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>64700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
